--- a/data_table/TeamStage.xlsx
+++ b/data_table/TeamStage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1040,7 +1043,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1048,14 +1051,14 @@
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1067,7 +1070,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1087,7 +1090,7 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1095,10 +1098,10 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -1107,7 +1110,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1118,16 +1121,16 @@
       <c r="B4">
         <v>23000101</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E4">
         <v>5002001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
     </row>

--- a/data_table/TeamStage.xlsx
+++ b/data_table/TeamStage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -36,6 +36,9 @@
     <t>maxPlayerCount</t>
   </si>
   <si>
+    <t>iconResId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -60,7 +63,13 @@
     <t>最多玩家数</t>
   </si>
   <si>
+    <t>关卡图片资源id</t>
+  </si>
+  <si>
     <t>组队副本 1</t>
+  </si>
+  <si>
+    <t>这是一个组队刷副本</t>
   </si>
 </sst>
 </file>
@@ -1040,21 +1049,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1073,48 +1083,57 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:6">
+    <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1122,16 +1141,19 @@
         <v>23000101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>5002001</v>
       </c>
       <c r="F4" s="1">
         <v>5</v>
+      </c>
+      <c r="G4">
+        <v>15005000</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/TeamStage.xlsx
+++ b/data_table/TeamStage.xlsx
@@ -66,10 +66,10 @@
     <t>关卡图片资源id</t>
   </si>
   <si>
-    <t>组队副本 1</t>
-  </si>
-  <si>
-    <t>这是一个组队刷副本</t>
+    <t>峨眉云霄峰</t>
+  </si>
+  <si>
+    <t>攀登至峨眉山的最高处云霄峰，众人将面临至高无上的挑战。云霄峰的巅峰乃是最终对决之地，最后的敌人昆仑派掌门叶须眉等待着能够战胜他的对手。风云变幻，剑气纵横，唯有战胜叶须眉，方能成为武林盟主，征服九州武林。</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
